--- a/gg/5.xlsx
+++ b/gg/5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bomjz\Desktop\7-semestr.git\gg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1730CF8-D8D3-4A4E-B50E-6104361A43E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83853382-180B-46F1-AC82-23DD113C02AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1933,37 +1933,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.10946189387539258</c:v>
+                  <c:v>6.3984971782234312E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5640922000121044E-2</c:v>
+                  <c:v>9.1427611691528811E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.04703692728083E-2</c:v>
+                  <c:v>6.1203607826560596E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18698456542185113</c:v>
+                  <c:v>1.0930015659924632E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51849153737774989</c:v>
+                  <c:v>3.030795943125978E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0109018014136817</c:v>
+                  <c:v>5.909136133867416E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6137731686395591</c:v>
+                  <c:v>9.4331668311780997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2025198784526001</c:v>
+                  <c:v>0.12874633105930661</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4427092878120344</c:v>
+                  <c:v>0.1427863883213798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1533031105588858</c:v>
+                  <c:v>0.12586940887807982</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.80673548927897065</c:v>
+                  <c:v>4.7157002030316642E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4904,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="S62" sqref="S62"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5161,7 +5161,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>4</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2">
@@ -5186,7 +5186,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2">
@@ -5198,7 +5198,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5">
@@ -5210,7 +5210,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>5</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2">
@@ -5236,7 +5236,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2">
@@ -5248,7 +5248,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5">
@@ -5260,13 +5260,17 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J29">
         <f>145/600</f>
         <v>0.24166666666666667</v>
       </c>
+      <c r="L29">
+        <f>600/145</f>
+        <v>4.1379310344827589</v>
+      </c>
     </row>
-    <row r="31" spans="1:11" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>8</v>
       </c>
@@ -5296,7 +5300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>-6</v>
       </c>
@@ -5330,8 +5334,8 @@
         <v>5.157828441751687E-2</v>
       </c>
       <c r="K32" s="18">
-        <f>H32/(3.14*0.242)</f>
-        <v>0.10946189387539258</v>
+        <f>H32/(3.14*4.14)</f>
+        <v>6.3984971782234312E-3</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -5368,8 +5372,8 @@
         <v>3.6959289918764023E-2</v>
       </c>
       <c r="K33" s="18">
-        <f t="shared" ref="K33:K42" si="5">H33/(3.14*0.242)</f>
-        <v>1.5640922000121044E-2</v>
+        <f t="shared" ref="K33:K42" si="5">H33/(3.14*4.14)</f>
+        <v>9.1427611691528811E-4</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -5407,7 +5411,7 @@
       </c>
       <c r="K34" s="18">
         <f t="shared" si="5"/>
-        <v>1.04703692728083E-2</v>
+        <v>6.1203607826560596E-4</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -5445,7 +5449,7 @@
       </c>
       <c r="K35" s="18">
         <f t="shared" si="5"/>
-        <v>0.18698456542185113</v>
+        <v>1.0930015659924632E-2</v>
       </c>
       <c r="N35">
         <f>0.6*0.145</f>
@@ -5487,7 +5491,7 @@
       </c>
       <c r="K36" s="18">
         <f t="shared" si="5"/>
-        <v>0.51849153737774989</v>
+        <v>3.030795943125978E-2</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -5525,7 +5529,7 @@
       </c>
       <c r="K37" s="18">
         <f t="shared" si="5"/>
-        <v>1.0109018014136817</v>
+        <v>5.909136133867416E-2</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -5542,7 +5546,7 @@
         <v>139</v>
       </c>
       <c r="F38" s="16">
-        <f t="shared" si="0"/>
+        <f>D51/(E38*0.087)</f>
         <v>7.4992114533565093E-2</v>
       </c>
       <c r="G38" s="17">
@@ -5554,7 +5558,7 @@
         <v>1.2262739553858282</v>
       </c>
       <c r="I38" s="11">
-        <f t="shared" si="3"/>
+        <f>(0.087*H38*1.0015)/(8*3.14)</f>
         <v>4.2534181078720101E-3</v>
       </c>
       <c r="J38" s="18">
@@ -5563,7 +5567,7 @@
       </c>
       <c r="K38" s="18">
         <f t="shared" si="5"/>
-        <v>1.6137731686395591</v>
+        <v>9.4331668311780997E-2</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -5601,7 +5605,7 @@
       </c>
       <c r="K39" s="18">
         <f t="shared" si="5"/>
-        <v>2.2025198784526001</v>
+        <v>0.12874633105930661</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -5639,7 +5643,7 @@
       </c>
       <c r="K40" s="18">
         <f t="shared" si="5"/>
-        <v>2.4427092878120344</v>
+        <v>0.1427863883213798</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -5677,7 +5681,7 @@
       </c>
       <c r="K41" s="18">
         <f t="shared" si="5"/>
-        <v>2.1533031105588858</v>
+        <v>0.12586940887807982</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -5715,7 +5719,7 @@
       </c>
       <c r="K42" s="18">
         <f t="shared" si="5"/>
-        <v>0.80673548927897065</v>
+        <v>4.7157002030316642E-2</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
